--- a/haijiao进度.xlsx
+++ b/haijiao进度.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要确认注册流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>与前台连接OK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,23 +118,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要进行搜索框的语义分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面格局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>界面业务逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action定义好，等界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怎么测试！= =</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,19 +288,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -623,7 +607,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -641,11 +625,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
@@ -659,38 +643,38 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="10"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>5</v>
@@ -702,9 +686,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
-      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
@@ -712,15 +694,13 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>26</v>
-      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="7"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -728,11 +708,11 @@
       <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
@@ -744,9 +724,7 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>29</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="4"/>
       <c r="H7" s="7"/>
     </row>
@@ -792,17 +770,17 @@
       <c r="C11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -814,7 +792,7 @@
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -862,7 +840,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>4</v>
@@ -884,9 +862,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="4"/>
       <c r="H18" s="7"/>
     </row>
@@ -898,9 +874,7 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>22</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="4"/>
       <c r="H19" s="7"/>
     </row>
@@ -910,7 +884,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -922,7 +896,7 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
@@ -934,7 +908,7 @@
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -946,7 +920,7 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -960,7 +934,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
@@ -984,7 +958,7 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -994,11 +968,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B7:B13"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A17:A26"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="D2:D3"/>
@@ -1010,6 +979,11 @@
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A4:A16"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A17:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
